--- a/PluginsToExcelTGG/Resources/excelFolder/Relationship.xlsx
+++ b/PluginsToExcelTGG/Resources/excelFolder/Relationship.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>Components</t>
   </si>
@@ -45,23 +45,38 @@
     <t>ext1_2</t>
   </si>
   <si>
-    <t>plugin4</t>
-  </si>
-  <si>
-    <t>ext4_1</t>
-  </si>
-  <si>
     <t>plugin3</t>
   </si>
   <si>
     <t>ext3_1</t>
+  </si>
+  <si>
+    <t>plugin2</t>
+  </si>
+  <si>
+    <t>ext2_1</t>
+  </si>
+  <si>
+    <t>ext3_2</t>
+  </si>
+  <si>
+    <t>Test info 1</t>
+  </si>
+  <si>
+    <t>Test info 2</t>
+  </si>
+  <si>
+    <t>Test info 4</t>
+  </si>
+  <si>
+    <t>Test info 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -110,14 +125,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
@@ -203,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -219,14 +226,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,13 +515,14 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25">
@@ -554,64 +560,82 @@
       <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
+      <c r="C3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
+      <c r="C4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="19" t="s">
+      <c r="B5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>5</v>
-      </c>
+      <c r="A8" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="20"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="22"/>
+        <v>12</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
